--- a/corona-server-side-asp.net/Excels/Sections/מבט על/אחוז נבדקים חיוביים אתמול.xlsx
+++ b/corona-server-side-asp.net/Excels/Sections/מבט על/אחוז נבדקים חיוביים אתמול.xlsx
@@ -33,7 +33,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>average</t>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -390,15 +390,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2"/>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
@@ -406,7 +406,7 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>734</v>
       </c>
       <c r="G3" s="2"/>
@@ -416,7 +416,7 @@
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>797</v>
       </c>
     </row>
